--- a/Resources/Conditional Access/The Castle Bypass.xlsx
+++ b/Resources/Conditional Access/The Castle Bypass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSCode\Public-Toolbox\Resources\Conditional Access\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2036EDB-77F8-4290-A72B-459096B9E258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287B66E3-F417-494A-8F38-EDA3C23CC3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{D17D2028-330C-4C51-B6C6-4EE470230D99}"/>
+    <workbookView xWindow="-31950" yWindow="3435" windowWidth="28800" windowHeight="16200" xr2:uid="{D17D2028-330C-4C51-B6C6-4EE470230D99}"/>
   </bookViews>
   <sheets>
     <sheet name="The Castle Bypass" sheetId="15" r:id="rId1"/>
@@ -441,44 +441,45 @@
     <t>The Castle Bypass</t>
   </si>
   <si>
+    <t>All Location</t>
+  </si>
+  <si>
+    <t>Trusted Locations</t>
+  </si>
+  <si>
+    <t>Device Property</t>
+  </si>
+  <si>
+    <t>[MFA] Admin Accounts</t>
+  </si>
+  <si>
+    <t>[MFA] Standard Users (Non Trusted Locations)</t>
+  </si>
+  <si>
+    <t>[Block] Legacy protocols</t>
+  </si>
+  <si>
+    <t>[MFA] MFA Registration (Non Trusted Locations)</t>
+  </si>
+  <si>
+    <t>All Guests</t>
+  </si>
+  <si>
+    <t>Admin Roles</t>
+  </si>
+  <si>
+    <t>Break Glass</t>
+  </si>
+  <si>
+    <t>[MFA] Guest Users</t>
+  </si>
+  <si>
     <t>Policy Goals:	
 •	Require MFA for all access except trusted locations
 •	Block Legacy Auth
 •	Require Admins to MFA always
+•	Require Guests to MFA 
 •	Require MFA Reg From on Prem</t>
-  </si>
-  <si>
-    <t>All Location</t>
-  </si>
-  <si>
-    <t>Trusted Locations</t>
-  </si>
-  <si>
-    <t>Device Property</t>
-  </si>
-  <si>
-    <t>[MFA] Admin Accounts</t>
-  </si>
-  <si>
-    <t>[MFA] Standard Users (Non Trusted Locations)</t>
-  </si>
-  <si>
-    <t>[Block] Legacy protocols</t>
-  </si>
-  <si>
-    <t>[MFA] MFA Registration (Non Trusted Locations)</t>
-  </si>
-  <si>
-    <t>All Guests</t>
-  </si>
-  <si>
-    <t>Admin Roles</t>
-  </si>
-  <si>
-    <t>Break Glass</t>
-  </si>
-  <si>
-    <t>[MFA] Guest Users</t>
   </si>
 </sst>
 </file>
@@ -940,7 +941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1191,15 +1192,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="28">
     <dxf>
       <font>
         <b val="0"/>
@@ -1224,114 +1222,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1538,6 +1428,93 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="0" tint="-0.14999847407452621"/>
@@ -1617,13 +1594,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Patriot" pivot="0" count="7" xr9:uid="{8FA89387-387C-4503-8649-D759349424D5}">
-      <tableStyleElement type="wholeTable" dxfId="30"/>
-      <tableStyleElement type="headerRow" dxfId="29"/>
-      <tableStyleElement type="totalRow" dxfId="28"/>
-      <tableStyleElement type="firstColumn" dxfId="27"/>
-      <tableStyleElement type="lastColumn" dxfId="26"/>
-      <tableStyleElement type="firstRowStripe" dxfId="25"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="24"/>
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="totalRow" dxfId="25"/>
+      <tableStyleElement type="firstColumn" dxfId="24"/>
+      <tableStyleElement type="lastColumn" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="21"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1638,15 +1615,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D02823D1-6BE1-41E5-9EB6-069C8EF15E9F}" name="Table1345" displayName="Table1345" ref="A2:G89" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D02823D1-6BE1-41E5-9EB6-069C8EF15E9F}" name="Table1345" displayName="Table1345" ref="A2:G89" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A2:G89" xr:uid="{5B2E6E45-7AEE-489A-BACA-36806BF03EA1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0A062222-28B3-41F1-97D1-E359BEE161C7}" name="Name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{7C0871FE-560C-4CAF-97CF-B54CCBFBA932}" name=" " dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{6EE4E0F5-0040-4A99-A93D-5409A518A5F9}" name="[MFA] Admin Accounts" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{0AD580E6-EA45-4B3B-90B3-8A984D07CE97}" name="[MFA] Standard Users (Non Trusted Locations)" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{92EEE1F5-319D-41D7-8A33-8E719B315757}" name="[Block] Legacy protocols" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{294E62F2-2F91-424C-99EA-A4EF7D973489}" name="[MFA] MFA Registration (Non Trusted Locations)" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{0A062222-28B3-41F1-97D1-E359BEE161C7}" name="Name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7C0871FE-560C-4CAF-97CF-B54CCBFBA932}" name=" " dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{6EE4E0F5-0040-4A99-A93D-5409A518A5F9}" name="[MFA] Admin Accounts" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{0AD580E6-EA45-4B3B-90B3-8A984D07CE97}" name="[MFA] Standard Users (Non Trusted Locations)" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{92EEE1F5-319D-41D7-8A33-8E719B315757}" name="[Block] Legacy protocols" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{294E62F2-2F91-424C-99EA-A4EF7D973489}" name="[MFA] MFA Registration (Non Trusted Locations)" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{906BF8C7-E14A-4580-BE3F-3323E141D0BF}" name="[MFA] Guest Users" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1953,10 +1930,10 @@
   <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1967,12 +1944,12 @@
     <col min="7" max="19" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="88" t="s">
         <v>134</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D1" s="90"/>
       <c r="E1" s="90"/>
@@ -1988,19 +1965,19 @@
         <v>46</v>
       </c>
       <c r="C2" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="E2" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="F2" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>142</v>
-      </c>
       <c r="G2" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2096,7 +2073,7 @@
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2141,7 +2118,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -2154,10 +2131,10 @@
       <c r="B15" s="29"/>
       <c r="C15" s="34"/>
       <c r="D15" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
@@ -2168,9 +2145,9 @@
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="94"/>
+        <v>144</v>
+      </c>
+      <c r="D16" s="34"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -2565,11 +2542,11 @@
       <c r="B51" s="29"/>
       <c r="C51" s="34"/>
       <c r="D51" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E51" s="34"/>
       <c r="F51" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G51" s="34"/>
     </row>
@@ -2580,11 +2557,11 @@
       <c r="B52" s="29"/>
       <c r="C52" s="34"/>
       <c r="D52" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E52" s="34"/>
       <c r="F52" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G52" s="34"/>
     </row>
@@ -2693,7 +2670,7 @@
     </row>
     <row r="62" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B62" s="29"/>
       <c r="C62" s="34"/>
@@ -3021,37 +2998,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:F29 A16:C16 E16:F16 A4:F15">
-    <cfRule type="expression" dxfId="15" priority="23">
+    <cfRule type="expression" dxfId="20" priority="23">
       <formula>MOD(ROW()+1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B89">
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>MOD(ROW(),1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:F68">
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>MOD(ROW(),1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:F79">
-    <cfRule type="expression" dxfId="12" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>MOD(ROW()+1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:F89">
-    <cfRule type="expression" dxfId="11" priority="22">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>MOD(ROW()+1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1 C17:F1048576 C16 E16:F16 C2:F15">
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3061,27 +3038,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G29">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>MOD(ROW()+1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>MOD(ROW(),1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70:G79">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>MOD(ROW()+1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G89">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>MOD(ROW()+1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G89">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
